--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.528285</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H2">
-        <v>124.584855</v>
+        <v>131.888876</v>
       </c>
       <c r="I2">
-        <v>0.137866712381124</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J2">
-        <v>0.145939792231724</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.664231</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q2">
-        <v>9.194791424611669</v>
+        <v>9.733853332706222</v>
       </c>
       <c r="R2">
-        <v>82.753122821505</v>
+        <v>87.60467999435599</v>
       </c>
       <c r="S2">
-        <v>0.137866712381124</v>
+        <v>0.07039861439563429</v>
       </c>
       <c r="T2">
-        <v>0.145939792231724</v>
+        <v>0.08861072774244672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.02213166666667</v>
+        <v>43.96295866666666</v>
       </c>
       <c r="H3">
-        <v>216.066395</v>
+        <v>131.888876</v>
       </c>
       <c r="I3">
-        <v>0.2391010009578718</v>
+        <v>0.1193823486802574</v>
       </c>
       <c r="J3">
-        <v>0.2531020708300187</v>
+        <v>0.1297146081693155</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2214103333333333</v>
+        <v>0.1540585</v>
       </c>
       <c r="N3">
-        <v>0.664231</v>
+        <v>0.308117</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4103096883762655</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3168793477232431</v>
       </c>
       <c r="Q3">
-        <v>15.94644417969389</v>
+        <v>6.772867467748664</v>
       </c>
       <c r="R3">
-        <v>143.517997617245</v>
+        <v>40.63720480649199</v>
       </c>
       <c r="S3">
-        <v>0.2391010009578718</v>
+        <v>0.04898373428462308</v>
       </c>
       <c r="T3">
-        <v>0.2531020708300187</v>
+        <v>0.04110388042686874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.33487700000001</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H4">
-        <v>196.004631</v>
+        <v>216.066395</v>
       </c>
       <c r="I4">
-        <v>0.2169004738773853</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J4">
-        <v>0.2296015444621718</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.664231</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q4">
-        <v>14.46581689486234</v>
+        <v>15.94644417969389</v>
       </c>
       <c r="R4">
-        <v>130.192352053761</v>
+        <v>143.517997617245</v>
       </c>
       <c r="S4">
-        <v>0.2169004738773853</v>
+        <v>0.1153302331991957</v>
       </c>
       <c r="T4">
-        <v>0.2296015444621718</v>
+        <v>0.1451661510985729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.988644</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H5">
-        <v>99.977288</v>
+        <v>216.066395</v>
       </c>
       <c r="I5">
-        <v>0.1659536386987904</v>
+        <v>0.1955776293519722</v>
       </c>
       <c r="J5">
-        <v>0.1171142723456333</v>
+        <v>0.212504409894141</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.2214103333333333</v>
+        <v>0.1540585</v>
       </c>
       <c r="N5">
-        <v>0.664231</v>
+        <v>0.308117</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4103096883762655</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3168793477232431</v>
       </c>
       <c r="Q5">
-        <v>11.06800233092133</v>
+        <v>11.09562157136917</v>
       </c>
       <c r="R5">
-        <v>66.408013985528</v>
+        <v>66.57372942821499</v>
       </c>
       <c r="S5">
-        <v>0.1659536386987904</v>
+        <v>0.08024739615277647</v>
       </c>
       <c r="T5">
-        <v>0.1171142723456333</v>
+        <v>0.06733825879556811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.34659833333335</v>
+        <v>75.27587666666666</v>
       </c>
       <c r="H6">
-        <v>217.039795</v>
+        <v>225.82763</v>
       </c>
       <c r="I6">
-        <v>0.2401781740848285</v>
+        <v>0.2044132430569516</v>
       </c>
       <c r="J6">
-        <v>0.2542423201304522</v>
+        <v>0.2221047250357578</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,332 @@
         <v>0.664231</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q6">
-        <v>16.01828445251612</v>
+        <v>16.66685694472556</v>
       </c>
       <c r="R6">
-        <v>144.164560072645</v>
+        <v>150.00171250253</v>
       </c>
       <c r="S6">
-        <v>0.2401781740848285</v>
+        <v>0.120540508998272</v>
       </c>
       <c r="T6">
-        <v>0.2542423201304522</v>
+        <v>0.1517243246401766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>75.27587666666666</v>
+      </c>
+      <c r="H7">
+        <v>225.82763</v>
+      </c>
+      <c r="I7">
+        <v>0.2044132430569516</v>
+      </c>
+      <c r="J7">
+        <v>0.2221047250357578</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.1540585</v>
+      </c>
+      <c r="N7">
+        <v>0.308117</v>
+      </c>
+      <c r="O7">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P7">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q7">
+        <v>11.59688864545167</v>
+      </c>
+      <c r="R7">
+        <v>69.58133187271</v>
+      </c>
+      <c r="S7">
+        <v>0.08387273405867965</v>
+      </c>
+      <c r="T7">
+        <v>0.07038040039558119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>87.99833699999999</v>
+      </c>
+      <c r="H8">
+        <v>175.996674</v>
+      </c>
+      <c r="I8">
+        <v>0.2389613545046087</v>
+      </c>
+      <c r="J8">
+        <v>0.1730952624618072</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.2214103333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.664231</v>
+      </c>
+      <c r="O8">
+        <v>0.5896903116237344</v>
+      </c>
+      <c r="P8">
+        <v>0.6831206522767569</v>
+      </c>
+      <c r="Q8">
+        <v>19.483741127949</v>
+      </c>
+      <c r="R8">
+        <v>116.902446767694</v>
+      </c>
+      <c r="S8">
+        <v>0.1409131956038524</v>
+      </c>
+      <c r="T8">
+        <v>0.1182449485989262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>87.99833699999999</v>
+      </c>
+      <c r="H9">
+        <v>175.996674</v>
+      </c>
+      <c r="I9">
+        <v>0.2389613545046087</v>
+      </c>
+      <c r="J9">
+        <v>0.1730952624618072</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1540585</v>
+      </c>
+      <c r="N9">
+        <v>0.308117</v>
+      </c>
+      <c r="O9">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P9">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q9">
+        <v>13.5568918007145</v>
+      </c>
+      <c r="R9">
+        <v>54.22756720285799</v>
+      </c>
+      <c r="S9">
+        <v>0.09804815890075633</v>
+      </c>
+      <c r="T9">
+        <v>0.05485031386288104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>88.99412</v>
+      </c>
+      <c r="H10">
+        <v>266.98236</v>
+      </c>
+      <c r="I10">
+        <v>0.24166542440621</v>
+      </c>
+      <c r="J10">
+        <v>0.2625809944389785</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2214103333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.664231</v>
+      </c>
+      <c r="O10">
+        <v>0.5896903116237344</v>
+      </c>
+      <c r="P10">
+        <v>0.6831206522767569</v>
+      </c>
+      <c r="Q10">
+        <v>19.70421777390667</v>
+      </c>
+      <c r="R10">
+        <v>177.33795996516</v>
+      </c>
+      <c r="S10">
+        <v>0.14250775942678</v>
+      </c>
+      <c r="T10">
+        <v>0.1793745001966345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>88.99412</v>
+      </c>
+      <c r="H11">
+        <v>266.98236</v>
+      </c>
+      <c r="I11">
+        <v>0.24166542440621</v>
+      </c>
+      <c r="J11">
+        <v>0.2625809944389785</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1540585</v>
+      </c>
+      <c r="N11">
+        <v>0.308117</v>
+      </c>
+      <c r="O11">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P11">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q11">
+        <v>13.71030063602</v>
+      </c>
+      <c r="R11">
+        <v>82.26180381611998</v>
+      </c>
+      <c r="S11">
+        <v>0.09915766497942997</v>
+      </c>
+      <c r="T11">
+        <v>0.08320649424234403</v>
       </c>
     </row>
   </sheetData>
